--- a/data/pca/factorExposure/factorExposure_2016-10-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009559638412147381</v>
+        <v>0.012706541890976</v>
       </c>
       <c r="C2">
-        <v>0.05309351228113664</v>
+        <v>0.04284755820761321</v>
       </c>
       <c r="D2">
-        <v>-0.02173769976562649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06476505156624456</v>
+      </c>
+      <c r="E2">
+        <v>-0.05268150553943433</v>
+      </c>
+      <c r="F2">
+        <v>-0.08377716303010527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05630879117089628</v>
+        <v>0.03128291556357778</v>
       </c>
       <c r="C3">
-        <v>0.09939178149053805</v>
+        <v>0.08027938421727261</v>
       </c>
       <c r="D3">
-        <v>-0.05526896041074181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09722425773094977</v>
+      </c>
+      <c r="E3">
+        <v>-0.06416761526086859</v>
+      </c>
+      <c r="F3">
+        <v>-0.01748868641932496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06458490498352774</v>
+        <v>0.05522782532097258</v>
       </c>
       <c r="C4">
-        <v>0.05934028873072555</v>
+        <v>0.06627711414987138</v>
       </c>
       <c r="D4">
-        <v>-0.01672873028975814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05963882705555828</v>
+      </c>
+      <c r="E4">
+        <v>-0.04735325207378924</v>
+      </c>
+      <c r="F4">
+        <v>-0.08048813389220054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02819030697106747</v>
+        <v>0.03236407626314716</v>
       </c>
       <c r="C6">
-        <v>0.04101031798197682</v>
+        <v>0.03651345723516944</v>
       </c>
       <c r="D6">
-        <v>-0.02756945671806002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07034852082533405</v>
+      </c>
+      <c r="E6">
+        <v>-0.05898430726005711</v>
+      </c>
+      <c r="F6">
+        <v>-0.0719460181172807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02124974043626408</v>
+        <v>0.01986011521074939</v>
       </c>
       <c r="C7">
-        <v>0.0401699799840007</v>
+        <v>0.03608651194204503</v>
       </c>
       <c r="D7">
-        <v>0.004764907379281324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04074308466910288</v>
+      </c>
+      <c r="E7">
+        <v>-0.033412713211845</v>
+      </c>
+      <c r="F7">
+        <v>-0.1074738450079253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001634112482218132</v>
+        <v>0.003920863473635235</v>
       </c>
       <c r="C8">
-        <v>0.0190406202034992</v>
+        <v>0.02571461555086726</v>
       </c>
       <c r="D8">
-        <v>-0.0300054425425446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03661212876968813</v>
+      </c>
+      <c r="E8">
+        <v>-0.04075585702508098</v>
+      </c>
+      <c r="F8">
+        <v>-0.05234744891678541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02962590484623638</v>
+        <v>0.03459272706156398</v>
       </c>
       <c r="C9">
-        <v>0.04255980350501527</v>
+        <v>0.05145352986517473</v>
       </c>
       <c r="D9">
-        <v>-0.01201262403274254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04625575856739339</v>
+      </c>
+      <c r="E9">
+        <v>-0.0399161543915991</v>
+      </c>
+      <c r="F9">
+        <v>-0.08813122819657271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08005508287922826</v>
+        <v>0.1043835492263825</v>
       </c>
       <c r="C10">
-        <v>-0.1900593609894011</v>
+        <v>-0.1873842505975984</v>
       </c>
       <c r="D10">
-        <v>-0.007271856077186617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0002963325080169104</v>
+      </c>
+      <c r="E10">
+        <v>-0.04537798982085774</v>
+      </c>
+      <c r="F10">
+        <v>-0.03859361121128973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03868615793559141</v>
+        <v>0.03437947843024553</v>
       </c>
       <c r="C11">
-        <v>0.05467984984908308</v>
+        <v>0.05188592554469784</v>
       </c>
       <c r="D11">
-        <v>0.00194259467330678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03400048926010129</v>
+      </c>
+      <c r="E11">
+        <v>-0.004959468900245966</v>
+      </c>
+      <c r="F11">
+        <v>-0.06350884168688832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03418956184104699</v>
+        <v>0.03536344466117867</v>
       </c>
       <c r="C12">
-        <v>0.04543717209069794</v>
+        <v>0.0470350959268695</v>
       </c>
       <c r="D12">
-        <v>0.0004338847727677979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02661646794500775</v>
+      </c>
+      <c r="E12">
+        <v>-0.01469681294486409</v>
+      </c>
+      <c r="F12">
+        <v>-0.06590386518954339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01047718150697062</v>
+        <v>0.01097527628802532</v>
       </c>
       <c r="C13">
-        <v>0.0429873811515772</v>
+        <v>0.04141279180541509</v>
       </c>
       <c r="D13">
-        <v>-0.01418554923306569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06651478846533058</v>
+      </c>
+      <c r="E13">
+        <v>-0.0638732156217616</v>
+      </c>
+      <c r="F13">
+        <v>-0.1134842968577412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.005620367920895879</v>
+        <v>0.005162780879747127</v>
       </c>
       <c r="C14">
-        <v>0.03242752734752908</v>
+        <v>0.02886467962892207</v>
       </c>
       <c r="D14">
-        <v>0.01794232293958097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03144627774830461</v>
+      </c>
+      <c r="E14">
+        <v>-0.02784448083514558</v>
+      </c>
+      <c r="F14">
+        <v>-0.09727023501093469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001495049200676257</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002540094860777948</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.002862725026840814</v>
+      </c>
+      <c r="E15">
+        <v>-0.000186782140124266</v>
+      </c>
+      <c r="F15">
+        <v>-0.002165991928832496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03384511995754513</v>
+        <v>0.03246188912269878</v>
       </c>
       <c r="C16">
-        <v>0.04056299848850193</v>
+        <v>0.0449484513042858</v>
       </c>
       <c r="D16">
-        <v>-0.0042607409879083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02961812282267686</v>
+      </c>
+      <c r="E16">
+        <v>-0.01968792694716503</v>
+      </c>
+      <c r="F16">
+        <v>-0.06786240461652224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02250921962694508</v>
+        <v>0.01555798765197705</v>
       </c>
       <c r="C19">
-        <v>0.0612195871865411</v>
+        <v>0.04989804520837721</v>
       </c>
       <c r="D19">
-        <v>-0.06727723911694514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1034059167559638</v>
+      </c>
+      <c r="E19">
+        <v>-0.08107270530822407</v>
+      </c>
+      <c r="F19">
+        <v>-0.09410158548903974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01296026171675285</v>
+        <v>0.01267236203017841</v>
       </c>
       <c r="C20">
-        <v>0.04425622902314606</v>
+        <v>0.03975190959167917</v>
       </c>
       <c r="D20">
-        <v>-0.01454965933506687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04351418932894496</v>
+      </c>
+      <c r="E20">
+        <v>-0.05528687848314524</v>
+      </c>
+      <c r="F20">
+        <v>-0.08816910699000627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007387811040644186</v>
+        <v>0.006838656951215391</v>
       </c>
       <c r="C21">
-        <v>0.04941543905304798</v>
+        <v>0.04371117350454773</v>
       </c>
       <c r="D21">
-        <v>-0.03436932578175107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07435909330454767</v>
+      </c>
+      <c r="E21">
+        <v>-0.07192594510151089</v>
+      </c>
+      <c r="F21">
+        <v>-0.1323642628813052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0006803746346305141</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02274819882800121</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03327048383409396</v>
+      </c>
+      <c r="E22">
+        <v>-0.0158072397110712</v>
+      </c>
+      <c r="F22">
+        <v>-0.0135875305128205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0006143496793446393</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02287887584907152</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03296917430234617</v>
+      </c>
+      <c r="E23">
+        <v>-0.01610654533208705</v>
+      </c>
+      <c r="F23">
+        <v>-0.01345840947766062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02801476869527101</v>
+        <v>0.03094085314380036</v>
       </c>
       <c r="C24">
-        <v>0.04725160438747703</v>
+        <v>0.05331105760442187</v>
       </c>
       <c r="D24">
-        <v>0.0008448646635726669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02749693038713912</v>
+      </c>
+      <c r="E24">
+        <v>-0.01675946242624623</v>
+      </c>
+      <c r="F24">
+        <v>-0.07503105209554947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04414777944338613</v>
+        <v>0.04130759622018212</v>
       </c>
       <c r="C25">
-        <v>0.05815351332023815</v>
+        <v>0.05850572788083765</v>
       </c>
       <c r="D25">
-        <v>0.01105425330634043</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02503103262453785</v>
+      </c>
+      <c r="E25">
+        <v>-0.0123729465014968</v>
+      </c>
+      <c r="F25">
+        <v>-0.07800825188861443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01077242682377493</v>
+        <v>0.01334921514208383</v>
       </c>
       <c r="C26">
-        <v>0.01680910533670214</v>
+        <v>0.01530582705305507</v>
       </c>
       <c r="D26">
-        <v>-0.002430771907737959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02792557356777063</v>
+      </c>
+      <c r="E26">
+        <v>-0.02847952695047775</v>
+      </c>
+      <c r="F26">
+        <v>-0.07326599781969803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.09492258773449086</v>
+        <v>0.1397723591664393</v>
       </c>
       <c r="C28">
-        <v>-0.2166029304707728</v>
+        <v>-0.2381867861673735</v>
       </c>
       <c r="D28">
-        <v>-0.001913141594368457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01486582286865756</v>
+      </c>
+      <c r="E28">
+        <v>-0.0479393318535845</v>
+      </c>
+      <c r="F28">
+        <v>-0.05286766795332171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01099491050581055</v>
+        <v>0.005842999612248044</v>
       </c>
       <c r="C29">
-        <v>0.02551335709005878</v>
+        <v>0.02550777043240831</v>
       </c>
       <c r="D29">
-        <v>0.01681864679260383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02417368987170894</v>
+      </c>
+      <c r="E29">
+        <v>-0.03030186179690899</v>
+      </c>
+      <c r="F29">
+        <v>-0.08874097811829877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04991052482279205</v>
+        <v>0.0386464875300074</v>
       </c>
       <c r="C30">
-        <v>0.06462219404151184</v>
+        <v>0.06435691539233576</v>
       </c>
       <c r="D30">
-        <v>-0.03307445555683135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1094220573473357</v>
+      </c>
+      <c r="E30">
+        <v>-0.03603193202368542</v>
+      </c>
+      <c r="F30">
+        <v>-0.1011745224889965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04237498855971666</v>
+        <v>0.05303505874329873</v>
       </c>
       <c r="C31">
-        <v>0.03274144563900461</v>
+        <v>0.05172473112965258</v>
       </c>
       <c r="D31">
-        <v>0.01102882439095888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003077948643003593</v>
+      </c>
+      <c r="E31">
+        <v>-0.04714341363377192</v>
+      </c>
+      <c r="F31">
+        <v>-0.08063758897236936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.00138420778989567</v>
+        <v>0.003515744691450044</v>
       </c>
       <c r="C32">
-        <v>0.04552839874424032</v>
+        <v>0.03168647573808893</v>
       </c>
       <c r="D32">
-        <v>-0.01426916768835751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0503659146064437</v>
+      </c>
+      <c r="E32">
+        <v>-0.02139430217905897</v>
+      </c>
+      <c r="F32">
+        <v>-0.06953045339778192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02466345168122961</v>
+        <v>0.02330671029778876</v>
       </c>
       <c r="C33">
-        <v>0.06123567595788295</v>
+        <v>0.05445474167870908</v>
       </c>
       <c r="D33">
-        <v>-0.01917090475079134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0835649738412622</v>
+      </c>
+      <c r="E33">
+        <v>-0.05040502882645754</v>
+      </c>
+      <c r="F33">
+        <v>-0.1272053248031992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04977878109999812</v>
+        <v>0.03975071795291466</v>
       </c>
       <c r="C34">
-        <v>0.05515656570277699</v>
+        <v>0.06389980942088283</v>
       </c>
       <c r="D34">
-        <v>0.0127004739944916</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03480333797092609</v>
+      </c>
+      <c r="E34">
+        <v>0.006087150121286238</v>
+      </c>
+      <c r="F34">
+        <v>-0.07363386132975361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008239311143287249</v>
+        <v>0.01359456103526918</v>
       </c>
       <c r="C36">
-        <v>0.01237262187987661</v>
+        <v>0.01149365323043362</v>
       </c>
       <c r="D36">
-        <v>-0.002649884377420918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02963741936055076</v>
+      </c>
+      <c r="E36">
+        <v>-0.03560329876488406</v>
+      </c>
+      <c r="F36">
+        <v>-0.08166669935078352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03121325458314793</v>
+        <v>0.02547621833995464</v>
       </c>
       <c r="C38">
-        <v>0.02623782500219146</v>
+        <v>0.02543563206812102</v>
       </c>
       <c r="D38">
-        <v>-0.00097965757678332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02813654487691515</v>
+      </c>
+      <c r="E38">
+        <v>-0.03636139020691873</v>
+      </c>
+      <c r="F38">
+        <v>-0.06705221655546699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03823882003395793</v>
+        <v>0.03629907061091874</v>
       </c>
       <c r="C39">
-        <v>0.07163768443306028</v>
+        <v>0.0683975381807613</v>
       </c>
       <c r="D39">
-        <v>-0.01925404711565266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05277306919936083</v>
+      </c>
+      <c r="E39">
+        <v>-0.0179892677074354</v>
+      </c>
+      <c r="F39">
+        <v>-0.0893608296903889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01738935950696318</v>
+        <v>0.0152357348199747</v>
       </c>
       <c r="C40">
-        <v>0.03008038554141707</v>
+        <v>0.03674384852009243</v>
       </c>
       <c r="D40">
-        <v>-0.03399471019606857</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04313134132159178</v>
+      </c>
+      <c r="E40">
+        <v>-0.07113957916608778</v>
+      </c>
+      <c r="F40">
+        <v>-0.08607543226491741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01087161221595786</v>
+        <v>0.01833908087038662</v>
       </c>
       <c r="C41">
-        <v>0.004303665460208604</v>
+        <v>0.004903105624040638</v>
       </c>
       <c r="D41">
-        <v>0.0009412916327851453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02036996002560302</v>
+      </c>
+      <c r="E41">
+        <v>-0.03791119849190727</v>
+      </c>
+      <c r="F41">
+        <v>-0.07142543134763765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.001647668471662131</v>
+        <v>-0.0008560838698318045</v>
       </c>
       <c r="C42">
-        <v>0.01535719519806867</v>
+        <v>0.007908197744922569</v>
       </c>
       <c r="D42">
-        <v>-0.006198411096359774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.003593956703281785</v>
+      </c>
+      <c r="E42">
+        <v>-0.006626548129787198</v>
+      </c>
+      <c r="F42">
+        <v>0.009738189716553367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0314195636002538</v>
+        <v>0.02973866142002704</v>
       </c>
       <c r="C43">
-        <v>0.01897264464811289</v>
+        <v>0.01984476436573054</v>
       </c>
       <c r="D43">
-        <v>-0.006215661075431325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04424889992868516</v>
+      </c>
+      <c r="E43">
+        <v>-0.04302026939437512</v>
+      </c>
+      <c r="F43">
+        <v>-0.08389721272516824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01805374577239595</v>
+        <v>0.01454444906104829</v>
       </c>
       <c r="C44">
-        <v>0.05501925419465262</v>
+        <v>0.0506457868918198</v>
       </c>
       <c r="D44">
-        <v>-0.0176174343320298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04377996299292616</v>
+      </c>
+      <c r="E44">
+        <v>-0.05875031841591516</v>
+      </c>
+      <c r="F44">
+        <v>-0.09078569816488694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0007289452011122874</v>
+        <v>0.007393536709120794</v>
       </c>
       <c r="C46">
-        <v>0.01953883961672405</v>
+        <v>0.02346946635198981</v>
       </c>
       <c r="D46">
-        <v>0.01552232257604643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01639437057954908</v>
+      </c>
+      <c r="E46">
+        <v>-0.03548481849762428</v>
+      </c>
+      <c r="F46">
+        <v>-0.1030535062679874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07699872263893835</v>
+        <v>0.08518700060017675</v>
       </c>
       <c r="C47">
-        <v>0.07454363878258526</v>
+        <v>0.07937115963237135</v>
       </c>
       <c r="D47">
-        <v>0.002807468053694335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01082804973904217</v>
+      </c>
+      <c r="E47">
+        <v>-0.05422270648208547</v>
+      </c>
+      <c r="F47">
+        <v>-0.08086426676451666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01881279618762514</v>
+        <v>0.01565670210175422</v>
       </c>
       <c r="C48">
-        <v>0.0120052836085305</v>
+        <v>0.01666266714046067</v>
       </c>
       <c r="D48">
-        <v>0.00444623500711041</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02037695132098491</v>
+      </c>
+      <c r="E48">
+        <v>-0.04568462504697675</v>
+      </c>
+      <c r="F48">
+        <v>-0.09526272046557042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08453460300869849</v>
+        <v>0.07161090552329509</v>
       </c>
       <c r="C50">
-        <v>0.07019711507681041</v>
+        <v>0.07003338626905947</v>
       </c>
       <c r="D50">
-        <v>0.01269632688587728</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0005199464559928842</v>
+      </c>
+      <c r="E50">
+        <v>-0.05155407610724368</v>
+      </c>
+      <c r="F50">
+        <v>-0.06789463951627087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01068041005685207</v>
+        <v>0.009870584303206788</v>
       </c>
       <c r="C51">
-        <v>0.04574006966397731</v>
+        <v>0.03312349142494728</v>
       </c>
       <c r="D51">
-        <v>-0.001419401891553465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04963959000625856</v>
+      </c>
+      <c r="E51">
+        <v>-0.02038211127101594</v>
+      </c>
+      <c r="F51">
+        <v>-0.08438804255378031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09087886238548752</v>
+        <v>0.0907606223670656</v>
       </c>
       <c r="C53">
-        <v>0.07693979068837618</v>
+        <v>0.09054981822939243</v>
       </c>
       <c r="D53">
-        <v>0.03453430006373474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03801038024217432</v>
+      </c>
+      <c r="E53">
+        <v>-0.05428936392603416</v>
+      </c>
+      <c r="F53">
+        <v>-0.08891206392629877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02743700671232196</v>
+        <v>0.0272165913950836</v>
       </c>
       <c r="C54">
-        <v>0.01978474951225886</v>
+        <v>0.02577950226405757</v>
       </c>
       <c r="D54">
-        <v>-0.002840213147544469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03474340064663699</v>
+      </c>
+      <c r="E54">
+        <v>-0.03901381966432905</v>
+      </c>
+      <c r="F54">
+        <v>-0.09413625892824422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07251136355010435</v>
+        <v>0.08191125177967273</v>
       </c>
       <c r="C55">
-        <v>0.06996945140767057</v>
+        <v>0.07426034980706729</v>
       </c>
       <c r="D55">
-        <v>0.03308431690916872</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04595490067490281</v>
+      </c>
+      <c r="E55">
+        <v>-0.04455169147125074</v>
+      </c>
+      <c r="F55">
+        <v>-0.0646232143408024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1488439568859197</v>
+        <v>0.1435273737824485</v>
       </c>
       <c r="C56">
-        <v>0.09652601392830862</v>
+        <v>0.1081523886917675</v>
       </c>
       <c r="D56">
-        <v>0.02842478031382707</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04909464010052807</v>
+      </c>
+      <c r="E56">
+        <v>-0.04881413668044877</v>
+      </c>
+      <c r="F56">
+        <v>-0.05264934454993938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003394639412263513</v>
+        <v>0.001451634991886471</v>
       </c>
       <c r="C57">
-        <v>0.002311855701835354</v>
+        <v>0.001273042526629213</v>
       </c>
       <c r="D57">
-        <v>-0.01447950688549568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0152992967373417</v>
+      </c>
+      <c r="E57">
+        <v>-0.006410685814471235</v>
+      </c>
+      <c r="F57">
+        <v>-0.01368349027865278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07728948836448231</v>
+        <v>0.02974173995333195</v>
       </c>
       <c r="C58">
-        <v>0.03397325281909576</v>
+        <v>0.03528883561604121</v>
       </c>
       <c r="D58">
-        <v>-0.9670925683903304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5027137023477275</v>
+      </c>
+      <c r="E58">
+        <v>-0.6714972643577767</v>
+      </c>
+      <c r="F58">
+        <v>0.4607349147345899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1420157301488269</v>
+        <v>0.1520437617909577</v>
       </c>
       <c r="C59">
-        <v>-0.2018778201398671</v>
+        <v>-0.1850141678943644</v>
       </c>
       <c r="D59">
-        <v>-0.0236325513963767</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03127571505336193</v>
+      </c>
+      <c r="E59">
+        <v>-0.02550183271965251</v>
+      </c>
+      <c r="F59">
+        <v>-0.02221733912621768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3118845688709974</v>
+        <v>0.2781203926197093</v>
       </c>
       <c r="C60">
-        <v>0.09820098795361223</v>
+        <v>0.1040461348691352</v>
       </c>
       <c r="D60">
-        <v>0.02863024158186717</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.200680241280227</v>
+      </c>
+      <c r="E60">
+        <v>0.2818287590884889</v>
+      </c>
+      <c r="F60">
+        <v>0.1234937902506758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03481012850661105</v>
+        <v>0.03852711710867241</v>
       </c>
       <c r="C61">
-        <v>0.06259333360193321</v>
+        <v>0.06132190520533461</v>
       </c>
       <c r="D61">
-        <v>-0.01040968643835788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04751716154146143</v>
+      </c>
+      <c r="E61">
+        <v>-0.02269063504753831</v>
+      </c>
+      <c r="F61">
+        <v>-0.08055598577837421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01185841157547862</v>
+        <v>0.01452657483454783</v>
       </c>
       <c r="C63">
-        <v>0.03594283537366189</v>
+        <v>0.03140126786352533</v>
       </c>
       <c r="D63">
-        <v>0.004557249237129343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02416017828804736</v>
+      </c>
+      <c r="E63">
+        <v>-0.03729474954129735</v>
+      </c>
+      <c r="F63">
+        <v>-0.07520835301368912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04967893170526668</v>
+        <v>0.05442589090656572</v>
       </c>
       <c r="C64">
-        <v>0.03037196704716608</v>
+        <v>0.05320193766565594</v>
       </c>
       <c r="D64">
-        <v>0.006435475807949928</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01174425454500276</v>
+      </c>
+      <c r="E64">
+        <v>-0.02331197168828755</v>
+      </c>
+      <c r="F64">
+        <v>-0.08873539005966541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09112051881143142</v>
+        <v>0.06545707266562396</v>
       </c>
       <c r="C65">
-        <v>0.04820257804842562</v>
+        <v>0.04199275656336466</v>
       </c>
       <c r="D65">
-        <v>-0.03347085016307014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08490952522466996</v>
+      </c>
+      <c r="E65">
+        <v>-0.03294276179364923</v>
+      </c>
+      <c r="F65">
+        <v>-0.024836272385898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06094567377626703</v>
+        <v>0.04845733290260496</v>
       </c>
       <c r="C66">
-        <v>0.10719990865017</v>
+        <v>0.09181896799360657</v>
       </c>
       <c r="D66">
-        <v>-0.02314538585271685</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07910472849835824</v>
+      </c>
+      <c r="E66">
+        <v>-0.01996516761825602</v>
+      </c>
+      <c r="F66">
+        <v>-0.09072278137001304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05624332080312057</v>
+        <v>0.04816754360868672</v>
       </c>
       <c r="C67">
-        <v>0.03191716063056036</v>
+        <v>0.03164270934828163</v>
       </c>
       <c r="D67">
-        <v>0.006930731587269908</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01541492415472096</v>
+      </c>
+      <c r="E67">
+        <v>-0.02101730450898406</v>
+      </c>
+      <c r="F67">
+        <v>-0.05390485449201938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1239536336924225</v>
+        <v>0.1577405594572405</v>
       </c>
       <c r="C68">
-        <v>-0.2853863507437859</v>
+        <v>-0.251227752713185</v>
       </c>
       <c r="D68">
-        <v>-0.004652778851022796</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01779916754766351</v>
+      </c>
+      <c r="E68">
+        <v>-0.04016285568809136</v>
+      </c>
+      <c r="F68">
+        <v>-0.01821885756325502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08533106572730385</v>
+        <v>0.08529564242557514</v>
       </c>
       <c r="C69">
-        <v>0.06936522788295953</v>
+        <v>0.08571280090278439</v>
       </c>
       <c r="D69">
-        <v>0.03154418381821509</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007250753548494298</v>
+      </c>
+      <c r="E69">
+        <v>-0.03009418394961777</v>
+      </c>
+      <c r="F69">
+        <v>-0.09652905105026488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1293702422523933</v>
+        <v>0.1492617604623273</v>
       </c>
       <c r="C71">
-        <v>-0.2436955266575667</v>
+        <v>-0.2289553126519484</v>
       </c>
       <c r="D71">
-        <v>-0.01802703737051791</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01535957738983325</v>
+      </c>
+      <c r="E71">
+        <v>-0.05876525789387856</v>
+      </c>
+      <c r="F71">
+        <v>-0.05609652235276844</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08100884334304699</v>
+        <v>0.09494449296002977</v>
       </c>
       <c r="C72">
-        <v>0.04882426476326687</v>
+        <v>0.05805443541122614</v>
       </c>
       <c r="D72">
-        <v>0.01889276159796741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02219243364079851</v>
+      </c>
+      <c r="E72">
+        <v>-0.009878565878282015</v>
+      </c>
+      <c r="F72">
+        <v>-0.08190034679444726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4328455331882639</v>
+        <v>0.344479921043014</v>
       </c>
       <c r="C73">
-        <v>0.08157908237593532</v>
+        <v>0.08621055335168797</v>
       </c>
       <c r="D73">
-        <v>-0.01167482497390793</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4205803028613816</v>
+      </c>
+      <c r="E73">
+        <v>0.4965897859928235</v>
+      </c>
+      <c r="F73">
+        <v>0.291309288313561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1161840568389545</v>
+        <v>0.1101867914132565</v>
       </c>
       <c r="C74">
-        <v>0.1172540409683846</v>
+        <v>0.1026974421211172</v>
       </c>
       <c r="D74">
-        <v>0.01081920326064251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02718505562688927</v>
+      </c>
+      <c r="E74">
+        <v>-0.06600271952429117</v>
+      </c>
+      <c r="F74">
+        <v>-0.05949383086405487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2560823130210862</v>
+        <v>0.2537168494662839</v>
       </c>
       <c r="C75">
-        <v>0.1359071625175251</v>
+        <v>0.1468167768317298</v>
       </c>
       <c r="D75">
-        <v>0.04839257290814809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1291386098174017</v>
+      </c>
+      <c r="E75">
+        <v>-0.08024538272752846</v>
+      </c>
+      <c r="F75">
+        <v>-0.02425918035205408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1175151641495895</v>
+        <v>0.1267787699120219</v>
       </c>
       <c r="C76">
-        <v>0.1065365329838608</v>
+        <v>0.1079371849642731</v>
       </c>
       <c r="D76">
-        <v>0.03090334635075219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05932866980862921</v>
+      </c>
+      <c r="E76">
+        <v>-0.07061430526724052</v>
+      </c>
+      <c r="F76">
+        <v>-0.06954140298627612</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07446542945433515</v>
+        <v>0.06161203911375199</v>
       </c>
       <c r="C77">
-        <v>0.05908212191244902</v>
+        <v>0.06663842161527719</v>
       </c>
       <c r="D77">
-        <v>-0.0418930305601266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06868131901128079</v>
+      </c>
+      <c r="E77">
+        <v>-0.06818297064463413</v>
+      </c>
+      <c r="F77">
+        <v>-0.1189698366659108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04218445605751571</v>
+        <v>0.04190944866973707</v>
       </c>
       <c r="C78">
-        <v>0.04424909408960402</v>
+        <v>0.05550275484810432</v>
       </c>
       <c r="D78">
-        <v>-0.01276183337371563</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.073377871389034</v>
+      </c>
+      <c r="E78">
+        <v>-0.02171786682071907</v>
+      </c>
+      <c r="F78">
+        <v>-0.1030358884397887</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01993467621481781</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03415869591226077</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05552833198145749</v>
+      </c>
+      <c r="E79">
+        <v>-0.0442000411198652</v>
+      </c>
+      <c r="F79">
+        <v>-0.03390869314589645</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04546963993164688</v>
+        <v>0.03360209842481295</v>
       </c>
       <c r="C80">
-        <v>0.05279081042897026</v>
+        <v>0.05226470629465314</v>
       </c>
       <c r="D80">
-        <v>-0.02512836393256735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04798569581959881</v>
+      </c>
+      <c r="E80">
+        <v>-0.008073542411797309</v>
+      </c>
+      <c r="F80">
+        <v>-0.03268141966241472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1394850372193722</v>
+        <v>0.1389215658220415</v>
       </c>
       <c r="C81">
-        <v>0.08277734437389035</v>
+        <v>0.1005530231451929</v>
       </c>
       <c r="D81">
-        <v>0.01990341753748737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09345542041251857</v>
+      </c>
+      <c r="E81">
+        <v>-0.08379448443208704</v>
+      </c>
+      <c r="F81">
+        <v>-0.02691089179130375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0692836053777135</v>
+        <v>0.1907016038197855</v>
       </c>
       <c r="C82">
-        <v>0.04958759591976523</v>
+        <v>0.1429039629950749</v>
       </c>
       <c r="D82">
-        <v>0.02833842927489858</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2237742967470054</v>
+      </c>
+      <c r="E82">
+        <v>-0.01750074306309563</v>
+      </c>
+      <c r="F82">
+        <v>-0.07770012485039696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02740079366576509</v>
+        <v>0.02662110424382035</v>
       </c>
       <c r="C83">
-        <v>0.02180932289590382</v>
+        <v>0.03831091071988272</v>
       </c>
       <c r="D83">
-        <v>-0.01433749053058359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03691109199316165</v>
+      </c>
+      <c r="E83">
+        <v>-0.00818473566868432</v>
+      </c>
+      <c r="F83">
+        <v>-0.05108072104164002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2338117521955169</v>
+        <v>0.2032925238174169</v>
       </c>
       <c r="C85">
-        <v>0.1216315287385172</v>
+        <v>0.1294433989976666</v>
       </c>
       <c r="D85">
-        <v>0.112800976928455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1070688265386389</v>
+      </c>
+      <c r="E85">
+        <v>-0.002875380665510297</v>
+      </c>
+      <c r="F85">
+        <v>0.01327205528606311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.005303096782010158</v>
+        <v>0.01123930170210956</v>
       </c>
       <c r="C86">
-        <v>0.02121975201595157</v>
+        <v>0.0283028805882307</v>
       </c>
       <c r="D86">
-        <v>-0.02091966515859729</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07629385674262526</v>
+      </c>
+      <c r="E86">
+        <v>-0.04354061624194547</v>
+      </c>
+      <c r="F86">
+        <v>-0.1398848659082943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01849524535149447</v>
+        <v>0.01929267600633168</v>
       </c>
       <c r="C87">
-        <v>0.0197630328600015</v>
+        <v>0.02102689961892952</v>
       </c>
       <c r="D87">
-        <v>-0.09118692815147235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09203852196850844</v>
+      </c>
+      <c r="E87">
+        <v>-0.082716926799768</v>
+      </c>
+      <c r="F87">
+        <v>-0.09256394296525539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1031585130710128</v>
+        <v>0.08887720401761762</v>
       </c>
       <c r="C88">
-        <v>0.07582681555893521</v>
+        <v>0.06511340167347819</v>
       </c>
       <c r="D88">
-        <v>0.01410473576710388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0136002432925714</v>
+      </c>
+      <c r="E88">
+        <v>-0.03308576781516381</v>
+      </c>
+      <c r="F88">
+        <v>-0.06826415262358364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2010577069101233</v>
+        <v>0.2319632478801164</v>
       </c>
       <c r="C89">
-        <v>-0.3710549695681367</v>
+        <v>-0.3761686222942062</v>
       </c>
       <c r="D89">
-        <v>0.0269769487378297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01635010235721596</v>
+      </c>
+      <c r="E89">
+        <v>-0.03685627443851602</v>
+      </c>
+      <c r="F89">
+        <v>-0.09888679283690538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1868733826837915</v>
+        <v>0.2090974699245312</v>
       </c>
       <c r="C90">
-        <v>-0.3422751472593993</v>
+        <v>-0.3144042429573125</v>
       </c>
       <c r="D90">
-        <v>-0.005006347803216494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01167831663341722</v>
+      </c>
+      <c r="E90">
+        <v>-0.06213987549862926</v>
+      </c>
+      <c r="F90">
+        <v>-0.04798465903644244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2001820563983149</v>
+        <v>0.1882731628148685</v>
       </c>
       <c r="C91">
-        <v>0.1191619362359208</v>
+        <v>0.1428619741508139</v>
       </c>
       <c r="D91">
-        <v>0.04633784693796822</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1004874901040989</v>
+      </c>
+      <c r="E91">
+        <v>-0.07497679086216681</v>
+      </c>
+      <c r="F91">
+        <v>-0.04784813186241506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1766967321069846</v>
+        <v>0.1890929464856952</v>
       </c>
       <c r="C92">
-        <v>-0.2770375233332908</v>
+        <v>-0.2731335305359771</v>
       </c>
       <c r="D92">
-        <v>0.01203788285625379</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.004876660711879604</v>
+      </c>
+      <c r="E92">
+        <v>-0.06735373300554962</v>
+      </c>
+      <c r="F92">
+        <v>-0.06832185025030946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2094432655808859</v>
+        <v>0.2340987198467179</v>
       </c>
       <c r="C93">
-        <v>-0.3406030063559065</v>
+        <v>-0.3164768105203903</v>
       </c>
       <c r="D93">
-        <v>-0.01030067378148783</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001299463690705344</v>
+      </c>
+      <c r="E93">
+        <v>-0.04862971704386701</v>
+      </c>
+      <c r="F93">
+        <v>-0.04247604387549243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2856980853846404</v>
+        <v>0.336852983850928</v>
       </c>
       <c r="C94">
-        <v>0.1652037111772251</v>
+        <v>0.1987751902120883</v>
       </c>
       <c r="D94">
-        <v>0.0670040187189429</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4692971186562562</v>
+      </c>
+      <c r="E94">
+        <v>-0.1608690138489124</v>
+      </c>
+      <c r="F94">
+        <v>0.4433058158640005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09357912622521246</v>
+        <v>0.08123376588275787</v>
       </c>
       <c r="C95">
-        <v>0.07630290372268665</v>
+        <v>0.0741445122704586</v>
       </c>
       <c r="D95">
-        <v>-0.0208452705175815</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1508835485097708</v>
+      </c>
+      <c r="E95">
+        <v>0.1359730621455618</v>
+      </c>
+      <c r="F95">
+        <v>-0.1925579242256188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.20424683861994</v>
+        <v>0.1880156573709479</v>
       </c>
       <c r="C98">
-        <v>0.0272341580951257</v>
+        <v>0.04518802838273833</v>
       </c>
       <c r="D98">
-        <v>-0.01361460156784765</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1714440374377431</v>
+      </c>
+      <c r="E98">
+        <v>0.1575747957480394</v>
+      </c>
+      <c r="F98">
+        <v>0.03884125943554197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01070858003922273</v>
+        <v>0.005724528874200801</v>
       </c>
       <c r="C101">
-        <v>0.02561440444100355</v>
+        <v>0.02524660028208014</v>
       </c>
       <c r="D101">
-        <v>0.01686708071492879</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02352428665334049</v>
+      </c>
+      <c r="E101">
+        <v>-0.03078637473489353</v>
+      </c>
+      <c r="F101">
+        <v>-0.08826235746787377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1198914125354473</v>
+        <v>0.1208286222119904</v>
       </c>
       <c r="C102">
-        <v>0.07891693537144666</v>
+        <v>0.1028420203985189</v>
       </c>
       <c r="D102">
-        <v>0.04328040083455355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05104740493638581</v>
+      </c>
+      <c r="E102">
+        <v>0.008376046714440661</v>
+      </c>
+      <c r="F102">
+        <v>-0.0400504399676462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
